--- a/biology/Botanique/Lonicera_tatarica/Lonicera_tatarica.xlsx
+++ b/biology/Botanique/Lonicera_tatarica/Lonicera_tatarica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chèvrefeuille de Tartarie (Lonicera tatarica) est un arbuste caduc de la famille des Caprifoliaceae, à port dressé et buissonnant. Originaire du sud de la Russie à l'Asie centrale et orientale, c'est un arbuste très rustique qui est cultivé comme plante d'ornement.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Linné dédia le nom de genre Lonicera à Adam Lonitzer (Lonicerus), botaniste et mathématicien Allemand (1528-1586). Le terme tatarica en latin scientifique désigne la Tartarie, région de l'Asie centrale et septentrionale s'étendant de la mer Caspienne et de l'Oural à l'océan Pacifique.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Chèvrefeuille de Tartarie est un arbuste, à feuilles caduques, de 2-3 mètres de haut[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chèvrefeuille de Tartarie est un arbuste, à feuilles caduques, de 2-3 mètres de haut.
 Les feuilles portées par un pétiole de 2-5 mm, sont opposées, longues de 2 à 6 cm, sur 1-2 cm de largeur, de forme oblongue ou ovale.
 La marge est ciliée. Elles sont de couleur vert foncé sur la face supérieure, glauque au revers
 Les fleurs de 1 à 3 cm de long sont groupées par paires sur un pédoncule axillaire. La corolle est bilabiée, de couleur rose pale à rouge carmin, parfois blanche. Elle comporte un tube de 5-6 mm avec 5 lèvres supérieures lobées, une lèvre inférieure recourbée.
@@ -578,10 +594,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lonicera tatarica est un arbuste originaire de Sibérie, Kazakhstan, Kirghizistan, Chine (Heilongjiang, Liaoning, nord du Xinjiang), Japon, Corée[1].
-Il s'est naturalisé en Europe et Amérique du Nord. En France, on le trouve en Ile de France (77, 78, 95) et Haute-Corse[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lonicera tatarica est un arbuste originaire de Sibérie, Kazakhstan, Kirghizistan, Chine (Heilongjiang, Liaoning, nord du Xinjiang), Japon, Corée.
+Il s'est naturalisé en Europe et Amérique du Nord. En France, on le trouve en Ile de France (77, 78, 95) et Haute-Corse.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lonicera micrantha (Trautv.) Regel
 Caprifolium micranthum (Trautvetter) Kuntze
@@ -646,7 +666,9 @@
           <t>Principales variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Variétés sauvages
 Lonicera tatarica var. tatarica possède des fleurs blanches ou roses, ne jaunissant pas en fanant. Il pousse en Chine (Heilongjiang, Liaoning, nord du Xinjiang) et en Russie.
@@ -684,7 +706,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chèvrefeuille de Tartarie est cultivé dans les zones tempérées en Europe et Amérique du Nord pour son abondante floraison printanière précoce. C'est un arbuste compact, buissonnant, arrondi. La variété 'Hack's Red' est très répandue.
 Il se plante en situation ensoleillé à mi-ombre. C'est un arbuste très rustique qui supporte −30 °C et s'accommode de tout type de sol. Il peut être sujet aux pucerons.
